--- a/medicine/Mort/Décès_en_1957/Décès_en_1957.xlsx
+++ b/medicine/Mort/Décès_en_1957/Décès_en_1957.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1957</t>
+          <t>Décès_en_1957</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1957</t>
+          <t>Décès_en_1957</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-2 janvier : Gustave Fiévet, homme politique belge (° 8 mars 1892).
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2 janvier : Gustave Fiévet, homme politique belge (° 8 mars 1892).
 10 janvier :
 Antoine Irisse, peintre français de l’École de Paris (° 18 avril 1903).
 Gabriela Mistral (Lucila Godoy y Alcayaga), poétesse chilienne (° 7 avril 1889).
@@ -540,9 +557,43 @@
 Émile Bertin, peintre, décorateur de théâtre et illustrateur français (° 29 janvier 1878).
 Marie Calvès, peintre française (° 14 décembre 1883).
 José Linhares, homme d'État brésilien (° 28 janvier 1886).
-27 janvier : Kathleen Kerrigan, actrice américaine (° 11 avril 1868).
-Février
-2 février : Valery Larbaud, écrivain français (° 29 août 1881).
+27 janvier : Kathleen Kerrigan, actrice américaine (° 11 avril 1868).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1957</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1957</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 février : Valery Larbaud, écrivain français (° 29 août 1881).
 4 février :
 Miguel Covarrubias, peintre, caricaturiste, ethnologue et historien de l'art mexicain (° 22 novembre 1904).
 Erich Ponto, acteur allemand (° 14 décembre 1884).
@@ -558,9 +609,43 @@
 18 février : Elizabeth Mernin, agent de renseignement irlandaise (° 16 novembre 1886).
 19 février : Maurice Garin, coureur cycliste français (° 3 mars 1871).
 24 février : Don S. Williams, homme politique canadien (° 24 avril 1885).
-26 février : Robert Falbisaner, résistant français (° 16 août 1889).
-Mars
-1er mars : Silas Broux, peintre français (° 15 octobre 1867).
+26 février : Robert Falbisaner, résistant français (° 16 août 1889).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1957</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1957</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er mars : Silas Broux, peintre français (° 15 octobre 1867).
 7 mars : Wyndham Lewis, peintre britannique d'origine canadienne (° 18 novembre 1882).
 9 mars : Pierre Chagnon, compositeur français (° 1er janvier 1893).
 11 mars :
@@ -572,9 +657,43 @@
 16 mars : Constantin Brâncuşi, sculpteur français d'origine roumaine (° 19 février 1876).
 25 mars : Max Ophüls, réalisateur allemand (° 6 mai 1902).
 26 mars : Edouard Herriot, homme politique français (° 5 juillet 1872).
-29 mars : Naima Sahlbom, chimiste suédoise (° 15 mai 1871).
-Avril
-3 avril :
+29 mars : Naima Sahlbom, chimiste suédoise (° 15 mai 1871).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1957</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1957</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3 avril :
 Kobayashi Kokei, peintre japonais (° 11 février 1881).
 Arthur William Loth, savant et footballeur français (° 8 mai 1888).
 4 avril : Acho Chakatouny, acteur, réalisateur et chef maquilleur russe et français (° 19 février 1885).
@@ -589,9 +708,43 @@
 23 avril : Émilie Desjeux, peintre française (° 9 octobre 1861).
 25 avril : Léon Cannicioni, peintre français (° 29 avril 1879).
 28 avril : René Barthe, médecin français, pionnier de la médecine du travail (° 22 novembre 1893).
-29 avril : Lucien Pothier, coureur cycliste français (° 15 janvier 1883).
-Mai
-3 mai : Henry Cheffer, peintre et graveur français (° 30 décembre 1880).
+29 avril : Lucien Pothier, coureur cycliste français (° 15 janvier 1883).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1957</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1957</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>3 mai : Henry Cheffer, peintre et graveur français (° 30 décembre 1880).
 5 mai :
 Mikhaïl Gnessine, compositeur russe puis soviétique (° 2 février 1883).
 Georges Lorgeou, coureur cycliste français (° 17 juillet 1883).
@@ -603,9 +756,43 @@
 Georges Detreille, coureur cycliste français (° 8 septembre 1893).
 Ottone Rosai, peintre expressionniste italien (° 28 avril 1895).
 16 mai : Eliot Ness, policier qui arrêta Al Capone (° 19 avril 1903).
-24 mai : Vicente Blanco, coureur cycliste espagnol (° 15 mars 1884).
-Juin
-2 juin : Adolphe Gaussen, peintre français (° 12 mai 1871).
+24 mai : Vicente Blanco, coureur cycliste espagnol (° 15 mars 1884).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1957</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1957</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2 juin : Adolphe Gaussen, peintre français (° 12 mai 1871).
 12 juin : Alfred-Jean Broquelet, graveur, lithographe, peintre et écrivain français (° 25 mars 1861).
 13 juin : Sam Benson, costumier américain (° 1er janvier 1886).
 14 juin : Émile Abry, proviseur français (° 14 septembre 1880).
@@ -616,9 +803,43 @@
 27 juin :
 Jeanne Baudot, peintre française (° 11 mai 1877).
 Malcolm Lowry, écrivain britannique (° 28 juillet 1909).
-30 juin : Gyokudō Kawai, peintre japonais de l'école nihonga (° 24 novembre 1873).
-Juillet
-1er juillet : Lucien Hector Monod, peintre français (° 21 juillet 1867).
+30 juin : Gyokudō Kawai, peintre japonais de l'école nihonga (° 24 novembre 1873).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1957</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1957</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juillet : Lucien Hector Monod, peintre français (° 21 juillet 1867).
 3 juillet : Elisabeth Büchsel, peintre allemande (° 29 janvier 1867).
 6 juillet :
 Arthur de Kock, joueur de rugby à XV sud-africain (° 11 janvier 1866).
@@ -634,9 +855,43 @@
 26 juillet :
 Charles Hoffbauer, peintre français naturalisé américain (° 28 juin 1875).
 Ioánnis Kalogerás, militaire et homme politique grec (° 1876).
-31 juillet : Pavel Tchelitchev, artiste américain d'origine russe (° 21 septembre 1898).
-Août
-3 août : Blanche Odin, aquarelliste française (° 26 février 1865).
+31 juillet : Pavel Tchelitchev, artiste américain d'origine russe (° 21 septembre 1898).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1957</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1957</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3 août : Blanche Odin, aquarelliste française (° 26 février 1865).
 4 août : Erville Alderson, acteur américain (° 11 septembre 1882).
 5 août : Madeleine de Lyée de Belleau, sculptrice, céramiste, photographe et exploratrice française (° 4 novembre 1873).
 6 août : Ernest Linton, footballeur canadien (° 17 février 1880).
@@ -647,9 +902,43 @@
 23 août : Eugène Schueller, fondateur de L'Oréal (° 20 mars 1881).
 25 août : Umberto Saba, écrivain et poète italien (° 9 mars 1883).
 26 août : Teresa Fardella de Blasi, fondatrice d'œuvres, vénérable catholique (° 24 mai 1867).
-27 août : Marthe Orant, peintre française (° 3 juin 1874).
-Septembre
-2 septembre : Peter Freuchen, explorateur, anthropologue et écrivain danois (° 2 février 1886).
+27 août : Marthe Orant, peintre française (° 3 juin 1874).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1957</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1957</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2 septembre : Peter Freuchen, explorateur, anthropologue et écrivain danois (° 2 février 1886).
 5 septembre : Amie Ragg, homme politique fidjien (° vers 1879).
 7 septembre : Manlio Rho, peintre italien (° 15 février 1901).
 8 septembre : Aristide de Bardonnèche, homme politique français (° 9 février 1886).
@@ -659,9 +948,43 @@
 21 septembre : Haakon VII, premier roi de Norvège à ne pas être roi de Suède (° 3 août 1872).
 25 septembre : Luigi Mantovani, peintre italien (° 28 mai 1880).
 26 septembre : Gabrielle Debillemont-Chardon, peintre miniaturiste française (° 26 septembre 1860)
-30 septembre : Wheeler Dryden, acteur et réalisateur britannique (° 31 août 1892).
-Octobre
-2 octobre : Luigi Ganna, coureur cycliste italien (° 1er décembre 1883).
+30 septembre : Wheeler Dryden, acteur et réalisateur britannique (° 31 août 1892).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1957</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1957</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2 octobre : Luigi Ganna, coureur cycliste italien (° 1er décembre 1883).
 4 octobre : Jacobus Hendrik Pierneef, peintre britannique puis sud-africain (° 13 août 1886).
 6 octobre : Victor-Ferdinand Bourgeois, peintre et dessinateur français (° 1er août 1870).
 8 octobre : Karl Georg Pfleiderer, homme politique et diplomate allemand (° 10 mai 1899).
@@ -674,9 +997,43 @@
 24 octobre : Christian Dior, designer et grand couturier français (° 21 janvier 1905).
 26 octobre : Nikos Kazantzakis, écrivain grec (° 18 février 1883).
 28 octobre : Aleksandr Kononov, écrivain soviétique (° 25 mars 1895).
-29 octobre : Louis B. Mayer, producteur de cinéma, américain d'origine russe (° 4 juillet 1885).
-Novembre
-3 novembre : Laïka, chienne d'origine soviétique, premier être vivant mis en orbite (° 1954).
+29 octobre : Louis B. Mayer, producteur de cinéma, américain d'origine russe (° 4 juillet 1885).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1957</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1957</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3 novembre : Laïka, chienne d'origine soviétique, premier être vivant mis en orbite (° 1954).
 4 novembre : Joseph Canteloube, pianiste, compositeur et musicologue français (° 21 octobre 1879).
 7 novembre : Hasui Kawase, peintre et illustrateur japonais (° 18 mai 1883).
 10 novembre : Joseph Vassal, médecin militaire français (° 5 août 1867).
@@ -697,9 +1054,43 @@
 Georges de Grèce, prince de Grèce et de Danemark (° 24 juin 1869).
 Diego Rivera, peintre mexicain (° 8 décembre 1886).
 29 novembre : Erich Wolfgang Korngold, compositeur autrichien (° 29 mai 1897).
-30 novembre : Paja Jovanović,  peintre réaliste serbe puis yougoslave (° 16 juin 1859).
-Décembre
-6 décembre :
+30 novembre : Paja Jovanović,  peintre réaliste serbe puis yougoslave (° 16 juin 1859).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1957</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1957</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>6 décembre :
 Joseph Dewulf, joueur et entraîneur de football belge (° 28 avril 1882).
 Robert Esnault-Pelterie, pionnier de l'aéronautique et des moteurs-fusées (° 8 novembre 1881).
 Maurice Peeters, coureur cycliste néerlandais (° 5 mai 1882).
